--- a/Code/Results/Cases/Case_0_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9643238954030957</v>
+        <v>1.010484309763178</v>
       </c>
       <c r="D2">
-        <v>0.9730922810882318</v>
+        <v>1.013129844277631</v>
       </c>
       <c r="E2">
-        <v>0.9755359234008696</v>
+        <v>1.012768256453185</v>
       </c>
       <c r="F2">
-        <v>0.9792025579124187</v>
+        <v>1.02299249721028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04378265276259</v>
+        <v>1.025564463961677</v>
       </c>
       <c r="J2">
-        <v>0.9876266746643401</v>
+        <v>1.015738288697893</v>
       </c>
       <c r="K2">
-        <v>0.9849396627584102</v>
+        <v>1.015991922530632</v>
       </c>
       <c r="L2">
-        <v>0.9873469412278254</v>
+        <v>1.015631421819044</v>
       </c>
       <c r="M2">
-        <v>0.9909594448707473</v>
+        <v>1.025825246014936</v>
       </c>
       <c r="N2">
-        <v>0.9995749571469339</v>
+        <v>1.009325151751361</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.969716609465057</v>
+        <v>1.011614037404863</v>
       </c>
       <c r="D3">
-        <v>0.9777832855414085</v>
+        <v>1.01417050772705</v>
       </c>
       <c r="E3">
-        <v>0.9798777506583606</v>
+        <v>1.01373179448759</v>
       </c>
       <c r="F3">
-        <v>0.9852373651298206</v>
+        <v>1.024267018433759</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044187444051635</v>
+        <v>1.025543591503628</v>
       </c>
       <c r="J3">
-        <v>0.9910683126015716</v>
+        <v>1.016499889652448</v>
       </c>
       <c r="K3">
-        <v>0.988708553658893</v>
+        <v>1.016836590618084</v>
       </c>
       <c r="L3">
-        <v>0.9907747427579868</v>
+        <v>1.016399100089886</v>
       </c>
       <c r="M3">
-        <v>0.9960626877022852</v>
+        <v>1.026905275428904</v>
       </c>
       <c r="N3">
-        <v>1.000777184253132</v>
+        <v>1.009584421370086</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9731252510113032</v>
+        <v>1.012345284487156</v>
       </c>
       <c r="D4">
-        <v>0.9807548863804297</v>
+        <v>1.014844454671031</v>
       </c>
       <c r="E4">
-        <v>0.982629189869193</v>
+        <v>1.01435581510319</v>
       </c>
       <c r="F4">
-        <v>0.9890428951191015</v>
+        <v>1.025090401850141</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044424222987692</v>
+        <v>1.025527613580591</v>
       </c>
       <c r="J4">
-        <v>0.9932423271689409</v>
+        <v>1.016992457397564</v>
       </c>
       <c r="K4">
-        <v>0.9910912698799046</v>
+        <v>1.01738312379491</v>
       </c>
       <c r="L4">
-        <v>0.9929418872732166</v>
+        <v>1.016895776884773</v>
       </c>
       <c r="M4">
-        <v>0.9992753867438097</v>
+        <v>1.027602272531213</v>
       </c>
       <c r="N4">
-        <v>1.001535564254899</v>
+        <v>1.009751899987088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9745397580271944</v>
+        <v>1.012652758877663</v>
       </c>
       <c r="D5">
-        <v>0.9819895332258534</v>
+        <v>1.015127918463131</v>
       </c>
       <c r="E5">
-        <v>0.9837725941400127</v>
+        <v>1.014618284600377</v>
       </c>
       <c r="F5">
-        <v>0.9906199056282775</v>
+        <v>1.025436238050663</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044517811168506</v>
+        <v>1.025520303761093</v>
       </c>
       <c r="J5">
-        <v>0.9941441165245714</v>
+        <v>1.017199476115593</v>
       </c>
       <c r="K5">
-        <v>0.992080105200825</v>
+        <v>1.017612881167826</v>
       </c>
       <c r="L5">
-        <v>0.9938412677402637</v>
+        <v>1.017104565206043</v>
       </c>
       <c r="M5">
-        <v>1.000605394619277</v>
+        <v>1.027894846844519</v>
       </c>
       <c r="N5">
-        <v>1.001849881461233</v>
+        <v>1.009822239520789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.974776199937728</v>
+        <v>1.012704388623659</v>
       </c>
       <c r="D6">
-        <v>0.9821959972741089</v>
+        <v>1.01517552129963</v>
       </c>
       <c r="E6">
-        <v>0.9839638132188032</v>
+        <v>1.014662362086786</v>
       </c>
       <c r="F6">
-        <v>0.990883380397763</v>
+        <v>1.025494287078344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044533177750002</v>
+        <v>1.025519041627896</v>
       </c>
       <c r="J6">
-        <v>0.994294831763369</v>
+        <v>1.017234232153914</v>
       </c>
       <c r="K6">
-        <v>0.9922453963319665</v>
+        <v>1.017651458151765</v>
       </c>
       <c r="L6">
-        <v>0.9939916060848983</v>
+        <v>1.017139620837127</v>
       </c>
       <c r="M6">
-        <v>1.000827522505448</v>
+        <v>1.027943945383178</v>
       </c>
       <c r="N6">
-        <v>1.001902397301526</v>
+        <v>1.009834045823369</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9731442232630261</v>
+        <v>1.012349392745159</v>
       </c>
       <c r="D7">
-        <v>0.9807714403740178</v>
+        <v>1.014848241791156</v>
       </c>
       <c r="E7">
-        <v>0.9826445196038419</v>
+        <v>1.014359321717504</v>
       </c>
       <c r="F7">
-        <v>0.9890640557078726</v>
+        <v>1.025095024163671</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04442549682614</v>
+        <v>1.025527518236482</v>
       </c>
       <c r="J7">
-        <v>0.9932544240743441</v>
+        <v>1.016995223814292</v>
       </c>
       <c r="K7">
-        <v>0.9911045325681274</v>
+        <v>1.017386193843941</v>
       </c>
       <c r="L7">
-        <v>0.9929539501322351</v>
+        <v>1.016898566781524</v>
       </c>
       <c r="M7">
-        <v>0.9992932383374679</v>
+        <v>1.027606183664622</v>
       </c>
       <c r="N7">
-        <v>1.001539781660692</v>
+        <v>1.009752840136414</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9661636542308236</v>
+        <v>1.010866058001038</v>
       </c>
       <c r="D8">
-        <v>0.9746912458142104</v>
+        <v>1.013481424029326</v>
       </c>
       <c r="E8">
-        <v>0.9770156416353849</v>
+        <v>1.01309377552401</v>
       </c>
       <c r="F8">
-        <v>0.9812632281148702</v>
+        <v>1.023423501003549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043924702953499</v>
+        <v>1.025557921341</v>
       </c>
       <c r="J8">
-        <v>0.9888010751205303</v>
+        <v>1.015995725067276</v>
       </c>
       <c r="K8">
-        <v>0.9862253159993043</v>
+        <v>1.016277387223835</v>
       </c>
       <c r="L8">
-        <v>0.9885162221371503</v>
+        <v>1.015890875400787</v>
       </c>
       <c r="M8">
-        <v>0.9927031282311789</v>
+        <v>1.026190631304045</v>
       </c>
       <c r="N8">
-        <v>0.9999854089003526</v>
+        <v>1.009412832404199</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9532025337761845</v>
+        <v>1.008253999695243</v>
       </c>
       <c r="D9">
-        <v>0.9634568101034968</v>
+        <v>1.011077244982634</v>
       </c>
       <c r="E9">
-        <v>0.9666241592255409</v>
+        <v>1.010867899226553</v>
       </c>
       <c r="F9">
-        <v>0.9667092761924672</v>
+        <v>1.020467925226902</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042846326903414</v>
+        <v>1.025592601075909</v>
       </c>
       <c r="J9">
-        <v>0.9805234041573403</v>
+        <v>1.014232629301508</v>
       </c>
       <c r="K9">
-        <v>0.9771719718746668</v>
+        <v>1.014323326574419</v>
       </c>
       <c r="L9">
-        <v>0.9802829874218493</v>
+        <v>1.014114701408479</v>
       </c>
       <c r="M9">
-        <v>0.9803665971292592</v>
+        <v>1.023682017282031</v>
       </c>
       <c r="N9">
-        <v>0.9970883991252726</v>
+        <v>1.008811502024735</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9440544301166852</v>
+        <v>1.006513737877013</v>
       </c>
       <c r="D10">
-        <v>0.9555691120293599</v>
+        <v>1.00947733490595</v>
       </c>
       <c r="E10">
-        <v>0.9593357002064761</v>
+        <v>1.009386770785786</v>
       </c>
       <c r="F10">
-        <v>0.9563922341855355</v>
+        <v>1.018490647883195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041990550878772</v>
+        <v>1.025603068279385</v>
       </c>
       <c r="J10">
-        <v>0.9746780774559616</v>
+        <v>1.013055956041703</v>
       </c>
       <c r="K10">
-        <v>0.9707897547348359</v>
+        <v>1.013020451634356</v>
       </c>
       <c r="L10">
-        <v>0.9744801394857993</v>
+        <v>1.01293023022205</v>
       </c>
       <c r="M10">
-        <v>0.9715961564336678</v>
+        <v>1.021999994357436</v>
       </c>
       <c r="N10">
-        <v>0.9950381486650893</v>
+        <v>1.008409137104556</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9399570386620721</v>
+        <v>1.005760430650382</v>
       </c>
       <c r="D11">
-        <v>0.9520472291746315</v>
+        <v>1.008785229824752</v>
       </c>
       <c r="E11">
-        <v>0.9560834459485245</v>
+        <v>1.008746082072227</v>
       </c>
       <c r="F11">
-        <v>0.9517612379101191</v>
+        <v>1.017632811224697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041586219151761</v>
+        <v>1.025604610085929</v>
       </c>
       <c r="J11">
-        <v>0.9720600844324533</v>
+        <v>1.012546133159121</v>
       </c>
       <c r="K11">
-        <v>0.9679338980909657</v>
+        <v>1.012456244658848</v>
       </c>
       <c r="L11">
-        <v>0.9718839701083204</v>
+        <v>1.012417250865919</v>
       </c>
       <c r="M11">
-        <v>0.9676540474823623</v>
+        <v>1.021269367774712</v>
       </c>
       <c r="N11">
-        <v>0.9941190025573562</v>
+        <v>1.008234557019918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9384131246675838</v>
+        <v>1.005480652862979</v>
       </c>
       <c r="D12">
-        <v>0.9507219187163997</v>
+        <v>1.008528250495199</v>
       </c>
       <c r="E12">
-        <v>0.9548599378042685</v>
+        <v>1.008508198815126</v>
       </c>
       <c r="F12">
-        <v>0.9500147965130699</v>
+        <v>1.017313920930066</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041430832371858</v>
+        <v>1.025604734273553</v>
       </c>
       <c r="J12">
-        <v>0.9710737001877607</v>
+        <v>1.012356714077093</v>
       </c>
       <c r="K12">
-        <v>0.9668582863527403</v>
+        <v>1.012246664252412</v>
       </c>
       <c r="L12">
-        <v>0.9709062442518552</v>
+        <v>1.012226692539931</v>
       </c>
       <c r="M12">
-        <v>0.9661666585227443</v>
+        <v>1.020997633840438</v>
       </c>
       <c r="N12">
-        <v>0.9937725786460038</v>
+        <v>1.008169656974818</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9387453188200628</v>
+        <v>1.005540664633325</v>
       </c>
       <c r="D13">
-        <v>0.951006996638127</v>
+        <v>1.008583368952887</v>
       </c>
       <c r="E13">
-        <v>0.9551231019689294</v>
+        <v>1.00855922119807</v>
       </c>
       <c r="F13">
-        <v>0.9503906325467093</v>
+        <v>1.017382335393541</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041464400828356</v>
+        <v>1.025604727918276</v>
       </c>
       <c r="J13">
-        <v>0.9712859291175215</v>
+        <v>1.012397347304749</v>
       </c>
       <c r="K13">
-        <v>0.967089695557165</v>
+        <v>1.012291620372338</v>
       </c>
       <c r="L13">
-        <v>0.9711165903080196</v>
+        <v>1.012267568634073</v>
       </c>
       <c r="M13">
-        <v>0.966486778638204</v>
+        <v>1.021055937399837</v>
       </c>
       <c r="N13">
-        <v>0.9938471196570802</v>
+        <v>1.00818358066563</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9398298753989396</v>
+        <v>1.005737303445942</v>
       </c>
       <c r="D14">
-        <v>0.9519380348886363</v>
+        <v>1.008763985812034</v>
       </c>
       <c r="E14">
-        <v>0.9559826322439936</v>
+        <v>1.008726416591226</v>
       </c>
       <c r="F14">
-        <v>0.9516174230861008</v>
+        <v>1.017606456795743</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041573481680928</v>
+        <v>1.025604629496225</v>
       </c>
       <c r="J14">
-        <v>0.9719788394889834</v>
+        <v>1.012530476705577</v>
       </c>
       <c r="K14">
-        <v>0.9678452958082939</v>
+        <v>1.012438920861365</v>
       </c>
       <c r="L14">
-        <v>0.9718034293796566</v>
+        <v>1.012401499563776</v>
       </c>
       <c r="M14">
-        <v>0.9675315796184253</v>
+        <v>1.021246913242388</v>
       </c>
       <c r="N14">
-        <v>0.9940904711188993</v>
+        <v>1.008229193448556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9404951493417617</v>
+        <v>1.005858463572088</v>
       </c>
       <c r="D15">
-        <v>0.9525093732436108</v>
+        <v>1.008875282955289</v>
       </c>
       <c r="E15">
-        <v>0.9565101347882287</v>
+        <v>1.008829444035713</v>
       </c>
       <c r="F15">
-        <v>0.9523697529058605</v>
+        <v>1.017744511999903</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041639996977227</v>
+        <v>1.025604509446884</v>
       </c>
       <c r="J15">
-        <v>0.9724038887121572</v>
+        <v>1.012612495718652</v>
       </c>
       <c r="K15">
-        <v>0.968308852431254</v>
+        <v>1.012529676363024</v>
       </c>
       <c r="L15">
-        <v>0.9722248122048568</v>
+        <v>1.012484016830383</v>
       </c>
       <c r="M15">
-        <v>0.96817220859054</v>
+        <v>1.021364533785618</v>
       </c>
       <c r="N15">
-        <v>0.9942397344345473</v>
+        <v>1.008257289932278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.944323366224832</v>
+        <v>1.006563737262973</v>
       </c>
       <c r="D16">
-        <v>0.9558005105386249</v>
+        <v>1.009523281613565</v>
       </c>
       <c r="E16">
-        <v>0.9595494286577925</v>
+        <v>1.009429304826826</v>
       </c>
       <c r="F16">
-        <v>0.9566959891189195</v>
+        <v>1.018547544497377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042016662997572</v>
+        <v>1.025602903014827</v>
       </c>
       <c r="J16">
-        <v>0.9748499198503189</v>
+        <v>1.013089784594274</v>
       </c>
       <c r="K16">
-        <v>0.9709772644387343</v>
+        <v>1.013057894999519</v>
       </c>
       <c r="L16">
-        <v>0.9746506088325331</v>
+        <v>1.012964272908698</v>
       </c>
       <c r="M16">
-        <v>0.971854620329535</v>
+        <v>1.022048435085864</v>
       </c>
       <c r="N16">
-        <v>0.9950984634872162</v>
+        <v>1.008420715952515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9466872264530684</v>
+        <v>1.007006199276307</v>
       </c>
       <c r="D17">
-        <v>0.9578356847074344</v>
+        <v>1.009929931921766</v>
       </c>
       <c r="E17">
-        <v>0.9614294309240846</v>
+        <v>1.009805755203822</v>
       </c>
       <c r="F17">
-        <v>0.959364761708154</v>
+        <v>1.019050819208078</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042243808222036</v>
+        <v>1.025601095246419</v>
       </c>
       <c r="J17">
-        <v>0.9763603777228832</v>
+        <v>1.013389090274921</v>
       </c>
       <c r="K17">
-        <v>0.9726257296260348</v>
+        <v>1.013389217719945</v>
       </c>
       <c r="L17">
-        <v>0.976149317180363</v>
+        <v>1.013265498862141</v>
       </c>
       <c r="M17">
-        <v>0.9741248710477934</v>
+        <v>1.02247681180164</v>
       </c>
       <c r="N17">
-        <v>0.9956285194855494</v>
+        <v>1.008523134065088</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9480529929203558</v>
+        <v>1.007264302920423</v>
       </c>
       <c r="D18">
-        <v>0.9590125775046445</v>
+        <v>1.010167188533625</v>
       </c>
       <c r="E18">
-        <v>0.962516785255969</v>
+        <v>1.010025395060942</v>
       </c>
       <c r="F18">
-        <v>0.9609057447927412</v>
+        <v>1.019344210544008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042373048517873</v>
+        <v>1.025599752207639</v>
       </c>
       <c r="J18">
-        <v>0.9772330789034162</v>
+        <v>1.01356363981453</v>
       </c>
       <c r="K18">
-        <v>0.9735784131028896</v>
+        <v>1.013582467544463</v>
       </c>
       <c r="L18">
-        <v>0.9770154933214672</v>
+        <v>1.013441189689116</v>
       </c>
       <c r="M18">
-        <v>0.9754352347939533</v>
+        <v>1.022726454900511</v>
       </c>
       <c r="N18">
-        <v>0.9959346865951512</v>
+        <v>1.008582838726477</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9485165165433037</v>
+        <v>1.007352313550602</v>
       </c>
       <c r="D19">
-        <v>0.959412171880663</v>
+        <v>1.010248097849866</v>
       </c>
       <c r="E19">
-        <v>0.9628860103830397</v>
+        <v>1.01010029723146</v>
       </c>
       <c r="F19">
-        <v>0.961428571736781</v>
+        <v>1.019444222274182</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042416568533175</v>
+        <v>1.025599245290644</v>
       </c>
       <c r="J19">
-        <v>0.9775292612351459</v>
+        <v>1.013623151563128</v>
       </c>
       <c r="K19">
-        <v>0.9739017818570725</v>
+        <v>1.013648359896832</v>
       </c>
       <c r="L19">
-        <v>0.977309505409836</v>
+        <v>1.013501094182843</v>
       </c>
       <c r="M19">
-        <v>0.975879729011071</v>
+        <v>1.02281153916261</v>
       </c>
       <c r="N19">
-        <v>0.9960385804915681</v>
+        <v>1.008603190694662</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9464349650824434</v>
+        <v>1.00695872491843</v>
       </c>
       <c r="D20">
-        <v>0.9576183916198696</v>
+        <v>1.009886295540187</v>
       </c>
       <c r="E20">
-        <v>0.961228685048868</v>
+        <v>1.009765359157303</v>
       </c>
       <c r="F20">
-        <v>0.959080059901177</v>
+        <v>1.018996839186369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042219774686787</v>
+        <v>1.025601319048141</v>
       </c>
       <c r="J20">
-        <v>0.9761991869473461</v>
+        <v>1.013356980757649</v>
       </c>
       <c r="K20">
-        <v>0.9724497856966065</v>
+        <v>1.01335367046189</v>
       </c>
       <c r="L20">
-        <v>0.9759893528112692</v>
+        <v>1.013233181121353</v>
       </c>
       <c r="M20">
-        <v>0.9738827354359507</v>
+        <v>1.022430873983433</v>
       </c>
       <c r="N20">
-        <v>0.9955719624454276</v>
+        <v>1.008512149097958</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9395111194733776</v>
+        <v>1.005679397289765</v>
       </c>
       <c r="D21">
-        <v>0.9516643497180625</v>
+        <v>1.008710795913887</v>
       </c>
       <c r="E21">
-        <v>0.955729957771384</v>
+        <v>1.008677179040332</v>
       </c>
       <c r="F21">
-        <v>0.9512569038498214</v>
+        <v>1.017540465587766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041541504705367</v>
+        <v>1.025604670853805</v>
       </c>
       <c r="J21">
-        <v>0.9717751871297068</v>
+        <v>1.012491274750777</v>
       </c>
       <c r="K21">
-        <v>0.9676232075299331</v>
+        <v>1.012395544788256</v>
       </c>
       <c r="L21">
-        <v>0.9716015493097788</v>
+        <v>1.012362060660743</v>
       </c>
       <c r="M21">
-        <v>0.9672245618604179</v>
+        <v>1.021190685196861</v>
       </c>
       <c r="N21">
-        <v>0.9940189510743126</v>
+        <v>1.008215763091283</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9350299179953252</v>
+        <v>1.004875229465402</v>
       </c>
       <c r="D22">
-        <v>0.9478210800771132</v>
+        <v>1.007972286829223</v>
       </c>
       <c r="E22">
-        <v>0.9521825814321109</v>
+        <v>1.007993558282928</v>
       </c>
       <c r="F22">
-        <v>0.9461851437689418</v>
+        <v>1.01662332932573</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041084892374463</v>
+        <v>1.025604183719274</v>
       </c>
       <c r="J22">
-        <v>0.968912460468537</v>
+        <v>1.011946691991626</v>
       </c>
       <c r="K22">
-        <v>0.9645022685906192</v>
+        <v>1.011793081766879</v>
       </c>
       <c r="L22">
-        <v>0.9687647963972247</v>
+        <v>1.011814265839881</v>
       </c>
       <c r="M22">
-        <v>0.9629037702218824</v>
+        <v>1.020408922826244</v>
       </c>
       <c r="N22">
-        <v>0.9930133438907044</v>
+        <v>1.008029105415367</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9374181498582119</v>
+        <v>1.005301515993101</v>
       </c>
       <c r="D23">
-        <v>0.9498683291006668</v>
+        <v>1.008363730318997</v>
       </c>
       <c r="E23">
-        <v>0.9540720150901643</v>
+        <v>1.008355905563232</v>
       </c>
       <c r="F23">
-        <v>0.9488888962966043</v>
+        <v>1.017109659262828</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041329855061083</v>
+        <v>1.025604687631517</v>
       </c>
       <c r="J23">
-        <v>0.9704380588771065</v>
+        <v>1.012235412316294</v>
       </c>
       <c r="K23">
-        <v>0.9661652564590693</v>
+        <v>1.01211246394293</v>
       </c>
       <c r="L23">
-        <v>0.9702763074320452</v>
+        <v>1.012104670670096</v>
       </c>
       <c r="M23">
-        <v>0.9652075639942155</v>
+        <v>1.020823540448983</v>
       </c>
       <c r="N23">
-        <v>0.9935493071163232</v>
+        <v>1.008128085423114</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9465489913033089</v>
+        <v>1.006980176465585</v>
       </c>
       <c r="D24">
-        <v>0.9577166084192867</v>
+        <v>1.009906012743518</v>
       </c>
       <c r="E24">
-        <v>0.961319421884857</v>
+        <v>1.009783612197847</v>
       </c>
       <c r="F24">
-        <v>0.9592087526828046</v>
+        <v>1.019021230929136</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042230644440033</v>
+        <v>1.025601218813544</v>
       </c>
       <c r="J24">
-        <v>0.9762720477768205</v>
+        <v>1.013371489760013</v>
       </c>
       <c r="K24">
-        <v>0.9725293144281347</v>
+        <v>1.013369732753195</v>
       </c>
       <c r="L24">
-        <v>0.9760616584688154</v>
+        <v>1.013247784145415</v>
       </c>
       <c r="M24">
-        <v>0.9739921887466964</v>
+        <v>1.022451631990768</v>
       </c>
       <c r="N24">
-        <v>0.9955975274035744</v>
+        <v>1.00851711283702</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.956637752476577</v>
+        <v>1.008929077969227</v>
       </c>
       <c r="D25">
-        <v>0.966427568528176</v>
+        <v>1.011698273461991</v>
       </c>
       <c r="E25">
-        <v>0.9693708353460778</v>
+        <v>1.011442848539452</v>
       </c>
       <c r="F25">
-        <v>0.9705745156482154</v>
+        <v>1.021233221707093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04314882784825</v>
+        <v>1.025585869318646</v>
       </c>
       <c r="J25">
-        <v>0.9827180505485994</v>
+        <v>1.01468865442251</v>
       </c>
       <c r="K25">
-        <v>0.9795704149132511</v>
+        <v>1.014828525299383</v>
       </c>
       <c r="L25">
-        <v>0.9824639983187172</v>
+        <v>1.014573945814485</v>
       </c>
       <c r="M25">
-        <v>0.9836474719670597</v>
+        <v>1.024332245126138</v>
       </c>
       <c r="N25">
-        <v>0.9978573109490055</v>
+        <v>1.008967220596926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_200/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010484309763178</v>
+        <v>0.9643238954030964</v>
       </c>
       <c r="D2">
-        <v>1.013129844277631</v>
+        <v>0.9730922810882325</v>
       </c>
       <c r="E2">
-        <v>1.012768256453185</v>
+        <v>0.9755359234008699</v>
       </c>
       <c r="F2">
-        <v>1.02299249721028</v>
+        <v>0.9792025579124196</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025564463961677</v>
+        <v>1.04378265276259</v>
       </c>
       <c r="J2">
-        <v>1.015738288697893</v>
+        <v>0.9876266746643407</v>
       </c>
       <c r="K2">
-        <v>1.015991922530632</v>
+        <v>0.984939662758411</v>
       </c>
       <c r="L2">
-        <v>1.015631421819044</v>
+        <v>0.9873469412278257</v>
       </c>
       <c r="M2">
-        <v>1.025825246014936</v>
+        <v>0.9909594448707481</v>
       </c>
       <c r="N2">
-        <v>1.009325151751361</v>
+        <v>0.9995749571469339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011614037404863</v>
+        <v>0.9697166094650574</v>
       </c>
       <c r="D3">
-        <v>1.01417050772705</v>
+        <v>0.9777832855414093</v>
       </c>
       <c r="E3">
-        <v>1.01373179448759</v>
+        <v>0.9798777506583614</v>
       </c>
       <c r="F3">
-        <v>1.024267018433759</v>
+        <v>0.9852373651298214</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025543591503628</v>
+        <v>1.044187444051635</v>
       </c>
       <c r="J3">
-        <v>1.016499889652448</v>
+        <v>0.991068312601572</v>
       </c>
       <c r="K3">
-        <v>1.016836590618084</v>
+        <v>0.9887085536588938</v>
       </c>
       <c r="L3">
-        <v>1.016399100089886</v>
+        <v>0.9907747427579876</v>
       </c>
       <c r="M3">
-        <v>1.026905275428904</v>
+        <v>0.9960626877022859</v>
       </c>
       <c r="N3">
-        <v>1.009584421370086</v>
+        <v>1.000777184253132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012345284487156</v>
+        <v>0.9731252510113039</v>
       </c>
       <c r="D4">
-        <v>1.014844454671031</v>
+        <v>0.9807548863804305</v>
       </c>
       <c r="E4">
-        <v>1.01435581510319</v>
+        <v>0.9826291898691939</v>
       </c>
       <c r="F4">
-        <v>1.025090401850141</v>
+        <v>0.9890428951191023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025527613580591</v>
+        <v>1.044424222987692</v>
       </c>
       <c r="J4">
-        <v>1.016992457397564</v>
+        <v>0.9932423271689417</v>
       </c>
       <c r="K4">
-        <v>1.01738312379491</v>
+        <v>0.9910912698799054</v>
       </c>
       <c r="L4">
-        <v>1.016895776884773</v>
+        <v>0.9929418872732175</v>
       </c>
       <c r="M4">
-        <v>1.027602272531213</v>
+        <v>0.9992753867438102</v>
       </c>
       <c r="N4">
-        <v>1.009751899987088</v>
+        <v>1.001535564254899</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012652758877663</v>
+        <v>0.9745397580271952</v>
       </c>
       <c r="D5">
-        <v>1.015127918463131</v>
+        <v>0.9819895332258544</v>
       </c>
       <c r="E5">
-        <v>1.014618284600377</v>
+        <v>0.9837725941400132</v>
       </c>
       <c r="F5">
-        <v>1.025436238050663</v>
+        <v>0.9906199056282784</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025520303761093</v>
+        <v>1.044517811168505</v>
       </c>
       <c r="J5">
-        <v>1.017199476115593</v>
+        <v>0.994144116524572</v>
       </c>
       <c r="K5">
-        <v>1.017612881167826</v>
+        <v>0.992080105200826</v>
       </c>
       <c r="L5">
-        <v>1.017104565206043</v>
+        <v>0.9938412677402642</v>
       </c>
       <c r="M5">
-        <v>1.027894846844519</v>
+        <v>1.000605394619278</v>
       </c>
       <c r="N5">
-        <v>1.009822239520789</v>
+        <v>1.001849881461233</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012704388623659</v>
+        <v>0.9747761999377279</v>
       </c>
       <c r="D6">
-        <v>1.01517552129963</v>
+        <v>0.9821959972741089</v>
       </c>
       <c r="E6">
-        <v>1.014662362086786</v>
+        <v>0.9839638132188031</v>
       </c>
       <c r="F6">
-        <v>1.025494287078344</v>
+        <v>0.990883380397763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025519041627896</v>
+        <v>1.044533177750002</v>
       </c>
       <c r="J6">
-        <v>1.017234232153914</v>
+        <v>0.9942948317633689</v>
       </c>
       <c r="K6">
-        <v>1.017651458151765</v>
+        <v>0.9922453963319666</v>
       </c>
       <c r="L6">
-        <v>1.017139620837127</v>
+        <v>0.9939916060848983</v>
       </c>
       <c r="M6">
-        <v>1.027943945383178</v>
+        <v>1.000827522505448</v>
       </c>
       <c r="N6">
-        <v>1.009834045823369</v>
+        <v>1.001902397301526</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C7">
-        <v>1.012349392745159</v>
+        <v>0.9731442232630254</v>
       </c>
       <c r="D7">
-        <v>1.014848241791156</v>
+        <v>0.9807714403740171</v>
       </c>
       <c r="E7">
-        <v>1.014359321717504</v>
+        <v>0.9826445196038411</v>
       </c>
       <c r="F7">
-        <v>1.025095024163671</v>
+        <v>0.9890640557078724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025527518236482</v>
+        <v>1.04442549682614</v>
       </c>
       <c r="J7">
-        <v>1.016995223814292</v>
+        <v>0.9932544240743435</v>
       </c>
       <c r="K7">
-        <v>1.017386193843941</v>
+        <v>0.9911045325681267</v>
       </c>
       <c r="L7">
-        <v>1.016898566781524</v>
+        <v>0.9929539501322344</v>
       </c>
       <c r="M7">
-        <v>1.027606183664622</v>
+        <v>0.9992932383374675</v>
       </c>
       <c r="N7">
-        <v>1.009752840136414</v>
+        <v>1.001539781660691</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010866058001038</v>
+        <v>0.9661636542308232</v>
       </c>
       <c r="D8">
-        <v>1.013481424029326</v>
+        <v>0.9746912458142101</v>
       </c>
       <c r="E8">
-        <v>1.01309377552401</v>
+        <v>0.9770156416353843</v>
       </c>
       <c r="F8">
-        <v>1.023423501003549</v>
+        <v>0.9812632281148695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025557921341</v>
+        <v>1.043924702953498</v>
       </c>
       <c r="J8">
-        <v>1.015995725067276</v>
+        <v>0.9888010751205298</v>
       </c>
       <c r="K8">
-        <v>1.016277387223835</v>
+        <v>0.986225315999304</v>
       </c>
       <c r="L8">
-        <v>1.015890875400787</v>
+        <v>0.9885162221371498</v>
       </c>
       <c r="M8">
-        <v>1.026190631304045</v>
+        <v>0.9927031282311783</v>
       </c>
       <c r="N8">
-        <v>1.009412832404199</v>
+        <v>0.9999854089003525</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008253999695243</v>
+        <v>0.9532025337761839</v>
       </c>
       <c r="D9">
-        <v>1.011077244982634</v>
+        <v>0.9634568101034963</v>
       </c>
       <c r="E9">
-        <v>1.010867899226553</v>
+        <v>0.9666241592255405</v>
       </c>
       <c r="F9">
-        <v>1.020467925226902</v>
+        <v>0.9667092761924668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025592601075909</v>
+        <v>1.042846326903414</v>
       </c>
       <c r="J9">
-        <v>1.014232629301508</v>
+        <v>0.98052340415734</v>
       </c>
       <c r="K9">
-        <v>1.014323326574419</v>
+        <v>0.9771719718746663</v>
       </c>
       <c r="L9">
-        <v>1.014114701408479</v>
+        <v>0.9802829874218488</v>
       </c>
       <c r="M9">
-        <v>1.023682017282031</v>
+        <v>0.9803665971292589</v>
       </c>
       <c r="N9">
-        <v>1.008811502024735</v>
+        <v>0.9970883991252726</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006513737877013</v>
+        <v>0.9440544301166861</v>
       </c>
       <c r="D10">
-        <v>1.00947733490595</v>
+        <v>0.9555691120293607</v>
       </c>
       <c r="E10">
-        <v>1.009386770785786</v>
+        <v>0.9593357002064768</v>
       </c>
       <c r="F10">
-        <v>1.018490647883195</v>
+        <v>0.9563922341855362</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025603068279385</v>
+        <v>1.041990550878772</v>
       </c>
       <c r="J10">
-        <v>1.013055956041703</v>
+        <v>0.9746780774559627</v>
       </c>
       <c r="K10">
-        <v>1.013020451634356</v>
+        <v>0.9707897547348368</v>
       </c>
       <c r="L10">
-        <v>1.01293023022205</v>
+        <v>0.9744801394858001</v>
       </c>
       <c r="M10">
-        <v>1.021999994357436</v>
+        <v>0.9715961564336686</v>
       </c>
       <c r="N10">
-        <v>1.008409137104556</v>
+        <v>0.9950381486650897</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005760430650382</v>
+        <v>0.9399570386620727</v>
       </c>
       <c r="D11">
-        <v>1.008785229824752</v>
+        <v>0.9520472291746315</v>
       </c>
       <c r="E11">
-        <v>1.008746082072227</v>
+        <v>0.9560834459485249</v>
       </c>
       <c r="F11">
-        <v>1.017632811224697</v>
+        <v>0.951761237910119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025604610085929</v>
+        <v>1.041586219151761</v>
       </c>
       <c r="J11">
-        <v>1.012546133159121</v>
+        <v>0.9720600844324534</v>
       </c>
       <c r="K11">
-        <v>1.012456244658848</v>
+        <v>0.9679338980909659</v>
       </c>
       <c r="L11">
-        <v>1.012417250865919</v>
+        <v>0.9718839701083211</v>
       </c>
       <c r="M11">
-        <v>1.021269367774712</v>
+        <v>0.9676540474823623</v>
       </c>
       <c r="N11">
-        <v>1.008234557019918</v>
+        <v>0.9941190025573562</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005480652862979</v>
+        <v>0.9384131246675846</v>
       </c>
       <c r="D12">
-        <v>1.008528250495199</v>
+        <v>0.9507219187164008</v>
       </c>
       <c r="E12">
-        <v>1.008508198815126</v>
+        <v>0.9548599378042695</v>
       </c>
       <c r="F12">
-        <v>1.017313920930066</v>
+        <v>0.9500147965130705</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025604734273553</v>
+        <v>1.041430832371858</v>
       </c>
       <c r="J12">
-        <v>1.012356714077093</v>
+        <v>0.9710737001877618</v>
       </c>
       <c r="K12">
-        <v>1.012246664252412</v>
+        <v>0.9668582863527415</v>
       </c>
       <c r="L12">
-        <v>1.012226692539931</v>
+        <v>0.9709062442518561</v>
       </c>
       <c r="M12">
-        <v>1.020997633840438</v>
+        <v>0.9661666585227449</v>
       </c>
       <c r="N12">
-        <v>1.008169656974818</v>
+        <v>0.9937725786460041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005540664633325</v>
+        <v>0.9387453188200633</v>
       </c>
       <c r="D13">
-        <v>1.008583368952887</v>
+        <v>0.9510069966381274</v>
       </c>
       <c r="E13">
-        <v>1.00855922119807</v>
+        <v>0.9551231019689297</v>
       </c>
       <c r="F13">
-        <v>1.017382335393541</v>
+        <v>0.9503906325467093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025604727918276</v>
+        <v>1.041464400828356</v>
       </c>
       <c r="J13">
-        <v>1.012397347304749</v>
+        <v>0.971285929117522</v>
       </c>
       <c r="K13">
-        <v>1.012291620372338</v>
+        <v>0.9670896955571652</v>
       </c>
       <c r="L13">
-        <v>1.012267568634073</v>
+        <v>0.9711165903080198</v>
       </c>
       <c r="M13">
-        <v>1.021055937399837</v>
+        <v>0.966486778638204</v>
       </c>
       <c r="N13">
-        <v>1.00818358066563</v>
+        <v>0.9938471196570803</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005737303445942</v>
+        <v>0.9398298753989398</v>
       </c>
       <c r="D14">
-        <v>1.008763985812034</v>
+        <v>0.9519380348886364</v>
       </c>
       <c r="E14">
-        <v>1.008726416591226</v>
+        <v>0.955982632243993</v>
       </c>
       <c r="F14">
-        <v>1.017606456795743</v>
+        <v>0.9516174230861005</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025604629496225</v>
+        <v>1.041573481680928</v>
       </c>
       <c r="J14">
-        <v>1.012530476705577</v>
+        <v>0.9719788394889834</v>
       </c>
       <c r="K14">
-        <v>1.012438920861365</v>
+        <v>0.9678452958082939</v>
       </c>
       <c r="L14">
-        <v>1.012401499563776</v>
+        <v>0.9718034293796562</v>
       </c>
       <c r="M14">
-        <v>1.021246913242388</v>
+        <v>0.9675315796184253</v>
       </c>
       <c r="N14">
-        <v>1.008229193448556</v>
+        <v>0.9940904711188991</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005858463572088</v>
+        <v>0.940495149341761</v>
       </c>
       <c r="D15">
-        <v>1.008875282955289</v>
+        <v>0.9525093732436101</v>
       </c>
       <c r="E15">
-        <v>1.008829444035713</v>
+        <v>0.9565101347882278</v>
       </c>
       <c r="F15">
-        <v>1.017744511999903</v>
+        <v>0.9523697529058605</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025604509446884</v>
+        <v>1.041639996977227</v>
       </c>
       <c r="J15">
-        <v>1.012612495718652</v>
+        <v>0.9724038887121565</v>
       </c>
       <c r="K15">
-        <v>1.012529676363024</v>
+        <v>0.9683088524312532</v>
       </c>
       <c r="L15">
-        <v>1.012484016830383</v>
+        <v>0.9722248122048559</v>
       </c>
       <c r="M15">
-        <v>1.021364533785618</v>
+        <v>0.96817220859054</v>
       </c>
       <c r="N15">
-        <v>1.008257289932278</v>
+        <v>0.9942397344345471</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006563737262973</v>
+        <v>0.9443233662248324</v>
       </c>
       <c r="D16">
-        <v>1.009523281613565</v>
+        <v>0.9558005105386256</v>
       </c>
       <c r="E16">
-        <v>1.009429304826826</v>
+        <v>0.9595494286577926</v>
       </c>
       <c r="F16">
-        <v>1.018547544497377</v>
+        <v>0.9566959891189197</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025602903014827</v>
+        <v>1.042016662997572</v>
       </c>
       <c r="J16">
-        <v>1.013089784594274</v>
+        <v>0.9748499198503193</v>
       </c>
       <c r="K16">
-        <v>1.013057894999519</v>
+        <v>0.9709772644387351</v>
       </c>
       <c r="L16">
-        <v>1.012964272908698</v>
+        <v>0.9746506088325333</v>
       </c>
       <c r="M16">
-        <v>1.022048435085864</v>
+        <v>0.9718546203295351</v>
       </c>
       <c r="N16">
-        <v>1.008420715952515</v>
+        <v>0.9950984634872164</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007006199276307</v>
+        <v>0.9466872264530675</v>
       </c>
       <c r="D17">
-        <v>1.009929931921766</v>
+        <v>0.9578356847074339</v>
       </c>
       <c r="E17">
-        <v>1.009805755203822</v>
+        <v>0.9614294309240838</v>
       </c>
       <c r="F17">
-        <v>1.019050819208078</v>
+        <v>0.9593647617081538</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025601095246419</v>
+        <v>1.042243808222035</v>
       </c>
       <c r="J17">
-        <v>1.013389090274921</v>
+        <v>0.9763603777228828</v>
       </c>
       <c r="K17">
-        <v>1.013389217719945</v>
+        <v>0.9726257296260342</v>
       </c>
       <c r="L17">
-        <v>1.013265498862141</v>
+        <v>0.9761493171803625</v>
       </c>
       <c r="M17">
-        <v>1.02247681180164</v>
+        <v>0.9741248710477933</v>
       </c>
       <c r="N17">
-        <v>1.008523134065088</v>
+        <v>0.9956285194855492</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007264302920423</v>
+        <v>0.9480529929203566</v>
       </c>
       <c r="D18">
-        <v>1.010167188533625</v>
+        <v>0.9590125775046454</v>
       </c>
       <c r="E18">
-        <v>1.010025395060942</v>
+        <v>0.9625167852559696</v>
       </c>
       <c r="F18">
-        <v>1.019344210544008</v>
+        <v>0.9609057447927412</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025599752207639</v>
+        <v>1.042373048517874</v>
       </c>
       <c r="J18">
-        <v>1.01356363981453</v>
+        <v>0.9772330789034169</v>
       </c>
       <c r="K18">
-        <v>1.013582467544463</v>
+        <v>0.9735784131028905</v>
       </c>
       <c r="L18">
-        <v>1.013441189689116</v>
+        <v>0.9770154933214678</v>
       </c>
       <c r="M18">
-        <v>1.022726454900511</v>
+        <v>0.9754352347939536</v>
       </c>
       <c r="N18">
-        <v>1.008582838726477</v>
+        <v>0.9959346865951515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007352313550602</v>
+        <v>0.9485165165433034</v>
       </c>
       <c r="D19">
-        <v>1.010248097849866</v>
+        <v>0.9594121718806626</v>
       </c>
       <c r="E19">
-        <v>1.01010029723146</v>
+        <v>0.9628860103830392</v>
       </c>
       <c r="F19">
-        <v>1.019444222274182</v>
+        <v>0.9614285717367812</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025599245290644</v>
+        <v>1.042416568533175</v>
       </c>
       <c r="J19">
-        <v>1.013623151563128</v>
+        <v>0.9775292612351458</v>
       </c>
       <c r="K19">
-        <v>1.013648359896832</v>
+        <v>0.9739017818570724</v>
       </c>
       <c r="L19">
-        <v>1.013501094182843</v>
+        <v>0.9773095054098359</v>
       </c>
       <c r="M19">
-        <v>1.02281153916261</v>
+        <v>0.9758797290110712</v>
       </c>
       <c r="N19">
-        <v>1.008603190694662</v>
+        <v>0.9960385804915681</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00695872491843</v>
+        <v>0.9464349650824428</v>
       </c>
       <c r="D20">
-        <v>1.009886295540187</v>
+        <v>0.9576183916198696</v>
       </c>
       <c r="E20">
-        <v>1.009765359157303</v>
+        <v>0.9612286850488677</v>
       </c>
       <c r="F20">
-        <v>1.018996839186369</v>
+        <v>0.9590800599011765</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025601319048141</v>
+        <v>1.042219774686787</v>
       </c>
       <c r="J20">
-        <v>1.013356980757649</v>
+        <v>0.9761991869473458</v>
       </c>
       <c r="K20">
-        <v>1.01335367046189</v>
+        <v>0.9724497856966062</v>
       </c>
       <c r="L20">
-        <v>1.013233181121353</v>
+        <v>0.9759893528112688</v>
       </c>
       <c r="M20">
-        <v>1.022430873983433</v>
+        <v>0.9738827354359504</v>
       </c>
       <c r="N20">
-        <v>1.008512149097958</v>
+        <v>0.9955719624454274</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005679397289765</v>
+        <v>0.9395111194733775</v>
       </c>
       <c r="D21">
-        <v>1.008710795913887</v>
+        <v>0.9516643497180624</v>
       </c>
       <c r="E21">
-        <v>1.008677179040332</v>
+        <v>0.9557299577713838</v>
       </c>
       <c r="F21">
-        <v>1.017540465587766</v>
+        <v>0.9512569038498213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025604670853805</v>
+        <v>1.041541504705367</v>
       </c>
       <c r="J21">
-        <v>1.012491274750777</v>
+        <v>0.9717751871297068</v>
       </c>
       <c r="K21">
-        <v>1.012395544788256</v>
+        <v>0.967623207529933</v>
       </c>
       <c r="L21">
-        <v>1.012362060660743</v>
+        <v>0.9716015493097788</v>
       </c>
       <c r="M21">
-        <v>1.021190685196861</v>
+        <v>0.9672245618604179</v>
       </c>
       <c r="N21">
-        <v>1.008215763091283</v>
+        <v>0.9940189510743126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004875229465402</v>
+        <v>0.9350299179953259</v>
       </c>
       <c r="D22">
-        <v>1.007972286829223</v>
+        <v>0.9478210800771137</v>
       </c>
       <c r="E22">
-        <v>1.007993558282928</v>
+        <v>0.9521825814321112</v>
       </c>
       <c r="F22">
-        <v>1.01662332932573</v>
+        <v>0.9461851437689419</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025604183719274</v>
+        <v>1.041084892374463</v>
       </c>
       <c r="J22">
-        <v>1.011946691991626</v>
+        <v>0.9689124604685374</v>
       </c>
       <c r="K22">
-        <v>1.011793081766879</v>
+        <v>0.9645022685906197</v>
       </c>
       <c r="L22">
-        <v>1.011814265839881</v>
+        <v>0.968764796397225</v>
       </c>
       <c r="M22">
-        <v>1.020408922826244</v>
+        <v>0.9629037702218827</v>
       </c>
       <c r="N22">
-        <v>1.008029105415367</v>
+        <v>0.9930133438907046</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005301515993101</v>
+        <v>0.9374181498582119</v>
       </c>
       <c r="D23">
-        <v>1.008363730318997</v>
+        <v>0.949868329100667</v>
       </c>
       <c r="E23">
-        <v>1.008355905563232</v>
+        <v>0.9540720150901643</v>
       </c>
       <c r="F23">
-        <v>1.017109659262828</v>
+        <v>0.9488888962966044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025604687631517</v>
+        <v>1.041329855061083</v>
       </c>
       <c r="J23">
-        <v>1.012235412316294</v>
+        <v>0.9704380588771065</v>
       </c>
       <c r="K23">
-        <v>1.01211246394293</v>
+        <v>0.9661652564590695</v>
       </c>
       <c r="L23">
-        <v>1.012104670670096</v>
+        <v>0.970276307432045</v>
       </c>
       <c r="M23">
-        <v>1.020823540448983</v>
+        <v>0.9652075639942157</v>
       </c>
       <c r="N23">
-        <v>1.008128085423114</v>
+        <v>0.9935493071163232</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006980176465585</v>
+        <v>0.9465489913033098</v>
       </c>
       <c r="D24">
-        <v>1.009906012743518</v>
+        <v>0.9577166084192873</v>
       </c>
       <c r="E24">
-        <v>1.009783612197847</v>
+        <v>0.9613194218848575</v>
       </c>
       <c r="F24">
-        <v>1.019021230929136</v>
+        <v>0.959208752682805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025601218813544</v>
+        <v>1.042230644440033</v>
       </c>
       <c r="J24">
-        <v>1.013371489760013</v>
+        <v>0.9762720477768212</v>
       </c>
       <c r="K24">
-        <v>1.013369732753195</v>
+        <v>0.9725293144281355</v>
       </c>
       <c r="L24">
-        <v>1.013247784145415</v>
+        <v>0.9760616584688162</v>
       </c>
       <c r="M24">
-        <v>1.022451631990768</v>
+        <v>0.9739921887466966</v>
       </c>
       <c r="N24">
-        <v>1.00851711283702</v>
+        <v>0.9955975274035748</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008929077969227</v>
+        <v>0.9566377524765772</v>
       </c>
       <c r="D25">
-        <v>1.011698273461991</v>
+        <v>0.9664275685281766</v>
       </c>
       <c r="E25">
-        <v>1.011442848539452</v>
+        <v>0.9693708353460778</v>
       </c>
       <c r="F25">
-        <v>1.021233221707093</v>
+        <v>0.970574515648216</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025585869318646</v>
+        <v>1.04314882784825</v>
       </c>
       <c r="J25">
-        <v>1.01468865442251</v>
+        <v>0.9827180505485997</v>
       </c>
       <c r="K25">
-        <v>1.014828525299383</v>
+        <v>0.9795704149132518</v>
       </c>
       <c r="L25">
-        <v>1.014573945814485</v>
+        <v>0.9824639983187174</v>
       </c>
       <c r="M25">
-        <v>1.024332245126138</v>
+        <v>0.9836474719670603</v>
       </c>
       <c r="N25">
-        <v>1.008967220596926</v>
+        <v>0.9978573109490055</v>
       </c>
     </row>
   </sheetData>
